--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveshi/Desktop/PyTest/LC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveshi/Desktop/PyTest/LC/s4_labcollector_prepcr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCB5327-F37B-5348-B630-DA221E90D3B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F50EACF-0028-A944-B6DA-59D8583A2A63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" xr2:uid="{6E0A51E8-3679-4A0C-92B4-FF8D90CA32C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>TEST200801</t>
   </si>
@@ -61,16 +62,280 @@
   </si>
   <si>
     <t>TEST200810</t>
+  </si>
+  <si>
+    <t>TEST200811</t>
+  </si>
+  <si>
+    <t>TEST200812</t>
+  </si>
+  <si>
+    <t>TEST200813</t>
+  </si>
+  <si>
+    <t>TEST200814</t>
+  </si>
+  <si>
+    <t>TEST200815</t>
+  </si>
+  <si>
+    <t>TEST200816</t>
+  </si>
+  <si>
+    <t>TEST200817</t>
+  </si>
+  <si>
+    <t>TEST200818</t>
+  </si>
+  <si>
+    <t>TEST200819</t>
+  </si>
+  <si>
+    <t>TEST200820</t>
+  </si>
+  <si>
+    <t>TEST200821</t>
+  </si>
+  <si>
+    <t>TEST200822</t>
+  </si>
+  <si>
+    <t>TEST200823</t>
+  </si>
+  <si>
+    <t>TEST200824</t>
+  </si>
+  <si>
+    <t>TEST200825</t>
+  </si>
+  <si>
+    <t>TEST200826</t>
+  </si>
+  <si>
+    <t>TEST200827</t>
+  </si>
+  <si>
+    <t>TEST200828</t>
+  </si>
+  <si>
+    <t>TEST200829</t>
+  </si>
+  <si>
+    <t>TEST200830</t>
+  </si>
+  <si>
+    <t>TEST200831</t>
+  </si>
+  <si>
+    <t>TEST200832</t>
+  </si>
+  <si>
+    <t>TEST200833</t>
+  </si>
+  <si>
+    <t>TEST200834</t>
+  </si>
+  <si>
+    <t>TEST200835</t>
+  </si>
+  <si>
+    <t>TEST200836</t>
+  </si>
+  <si>
+    <t>TEST200837</t>
+  </si>
+  <si>
+    <t>TEST200838</t>
+  </si>
+  <si>
+    <t>TEST200839</t>
+  </si>
+  <si>
+    <t>TEST200840</t>
+  </si>
+  <si>
+    <t>TEST200841</t>
+  </si>
+  <si>
+    <t>TEST200842</t>
+  </si>
+  <si>
+    <t>TEST200843</t>
+  </si>
+  <si>
+    <t>TEST200844</t>
+  </si>
+  <si>
+    <t>TEST200845</t>
+  </si>
+  <si>
+    <t>TEST200846</t>
+  </si>
+  <si>
+    <t>TEST200847</t>
+  </si>
+  <si>
+    <t>TEST200848</t>
+  </si>
+  <si>
+    <t>TEST200849</t>
+  </si>
+  <si>
+    <t>TEST200850</t>
+  </si>
+  <si>
+    <t>TEST200851</t>
+  </si>
+  <si>
+    <t>TEST200852</t>
+  </si>
+  <si>
+    <t>TEST200853</t>
+  </si>
+  <si>
+    <t>TEST200854</t>
+  </si>
+  <si>
+    <t>TEST200855</t>
+  </si>
+  <si>
+    <t>TEST200856</t>
+  </si>
+  <si>
+    <t>TEST200857</t>
+  </si>
+  <si>
+    <t>TEST200858</t>
+  </si>
+  <si>
+    <t>TEST200859</t>
+  </si>
+  <si>
+    <t>TEST200860</t>
+  </si>
+  <si>
+    <t>TEST200861</t>
+  </si>
+  <si>
+    <t>TEST200862</t>
+  </si>
+  <si>
+    <t>TEST200863</t>
+  </si>
+  <si>
+    <t>TEST200864</t>
+  </si>
+  <si>
+    <t>TEST200865</t>
+  </si>
+  <si>
+    <t>TEST200866</t>
+  </si>
+  <si>
+    <t>TEST200867</t>
+  </si>
+  <si>
+    <t>TEST200868</t>
+  </si>
+  <si>
+    <t>TEST200869</t>
+  </si>
+  <si>
+    <t>TEST200870</t>
+  </si>
+  <si>
+    <t>TEST200871</t>
+  </si>
+  <si>
+    <t>TEST200872</t>
+  </si>
+  <si>
+    <t>TEST200873</t>
+  </si>
+  <si>
+    <t>TEST200874</t>
+  </si>
+  <si>
+    <t>TEST200875</t>
+  </si>
+  <si>
+    <t>TEST200876</t>
+  </si>
+  <si>
+    <t>TEST200877</t>
+  </si>
+  <si>
+    <t>TEST200878</t>
+  </si>
+  <si>
+    <t>TEST200879</t>
+  </si>
+  <si>
+    <t>TEST200880</t>
+  </si>
+  <si>
+    <t>TEST200881</t>
+  </si>
+  <si>
+    <t>TEST200882</t>
+  </si>
+  <si>
+    <t>TEST200883</t>
+  </si>
+  <si>
+    <t>TEST200884</t>
+  </si>
+  <si>
+    <t>TEST200885</t>
+  </si>
+  <si>
+    <t>TEST200886</t>
+  </si>
+  <si>
+    <t>TEST200887</t>
+  </si>
+  <si>
+    <t>TEST200888</t>
+  </si>
+  <si>
+    <t>TEST200889</t>
+  </si>
+  <si>
+    <t>TEST200890</t>
+  </si>
+  <si>
+    <t>TEST200891</t>
+  </si>
+  <si>
+    <t>TEST200892</t>
+  </si>
+  <si>
+    <t>TEST200893</t>
+  </si>
+  <si>
+    <t>TEST200894</t>
+  </si>
+  <si>
+    <t>TEST200895</t>
+  </si>
+  <si>
+    <t>TEST200896</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -412,20 +677,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B20AB5B-D691-4925-878E-2F9BC29D58A7}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>188</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -433,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -441,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>170</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -449,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -457,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>119</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -465,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -473,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -481,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>101</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -489,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -497,6 +765,782 @@
         <v>9</v>
       </c>
       <c r="B10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA678648-0F9A-1740-9234-C2E771556C56}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>51</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveshi/Desktop/PyTest/LC/s4_labcollector_prepcr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shih02\Desktop\Python\s4_labcollector_prepcr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F50EACF-0028-A944-B6DA-59D8583A2A63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE913B8-6D15-4CDB-A57F-25EE884DFC5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" xr2:uid="{6E0A51E8-3679-4A0C-92B4-FF8D90CA32C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{6E0A51E8-3679-4A0C-92B4-FF8D90CA32C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -679,16 +679,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B20AB5B-D691-4925-878E-2F9BC29D58A7}">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -704,7 +704,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -712,7 +712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -728,7 +728,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -736,7 +736,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -744,7 +744,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -752,7 +752,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -760,7 +760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -768,7 +768,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -776,7 +776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -784,7 +784,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -792,7 +792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -800,7 +800,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -808,7 +808,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -816,7 +816,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -824,7 +824,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -832,7 +832,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -840,7 +840,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -848,7 +848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -856,7 +856,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -864,7 +864,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -872,7 +872,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -880,7 +880,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -888,7 +888,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -896,7 +896,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -904,7 +904,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -912,7 +912,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -920,7 +920,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -928,7 +928,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -936,7 +936,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -944,7 +944,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -952,7 +952,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -960,7 +960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -968,7 +968,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -976,7 +976,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -984,7 +984,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -992,7 +992,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -1470,9 +1470,9 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
